--- a/divisione scraping.xlsx
+++ b/divisione scraping.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITSIZAM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIO\Desktop\Stat Modelling &amp; ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F451C17C-4355-4BB2-AAE5-F4AABD03547A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416701A3-BA79-41AF-B8CB-712E1594CC83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B17733FA-F954-4467-930B-FBDD4197CED3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B17733FA-F954-4467-930B-FBDD4197CED3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
   <si>
     <t>U</t>
   </si>
@@ -66,13 +67,16 @@
   </si>
   <si>
     <t>giorgio</t>
+  </si>
+  <si>
+    <t>TOTALE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +90,21 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -95,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -103,18 +122,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -130,7 +237,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -426,16 +533,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2541EA-9F43-4BC5-909F-7A1EA6B74ECC}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>4</v>
@@ -455,8 +564,27 @@
       <c r="G1">
         <v>2</v>
       </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -478,8 +606,29 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
+      <c r="I2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1151</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1631</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -501,8 +650,29 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
+      <c r="I3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>389</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -523,10 +693,65 @@
       </c>
       <c r="G4" t="s">
         <v>10</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>174</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I5" s="9"/>
+      <c r="J5" s="5">
+        <f t="shared" ref="J5:M5" si="0">SUM(J2:J4)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <f>SUM(N2:N4)</f>
+        <v>1714</v>
+      </c>
+      <c r="O5" s="4">
+        <f>SUM(O2:O4)</f>
+        <v>4068</v>
+      </c>
+      <c r="P5" s="2">
+        <f>SUM(J5:O5)</f>
+        <v>5782</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>